--- a/res/test confronto scelta neuroni/Riassunto test con correzione spaziale.xlsx
+++ b/res/test confronto scelta neuroni/Riassunto test con correzione spaziale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo Dom-Z Mk. II\Desktop\repo tesi\SiameseChangeDetection\res\test confronto scelta neuroni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0FF4B1-2F5E-4F3A-B519-5B3F8D98373C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF83A033-A276-4224-92B7-24D2713C04C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79E00BD3-0466-4E8D-B63B-9137F47501E3}"/>
+    <workbookView xWindow="-19320" yWindow="6540" windowWidth="19440" windowHeight="15000" xr2:uid="{79E00BD3-0466-4E8D-B63B-9137F47501E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="88">
   <si>
     <t>total_examples</t>
   </si>
@@ -202,6 +202,102 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.924754058784477</t>
+  </si>
+  <si>
+    <t>BAY AREA on SBED con scelta neuroni decrescente</t>
+  </si>
+  <si>
+    <t>BAY AREA on SBED con neuroni decrescenti e layer aggiuntivo</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA on BAED con scelta neuroni decrescente</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA on BAED con scelta neuroni decrescente e layer aggiuntivo</t>
+  </si>
+  <si>
+    <t>BAY AREA on SBSAM con scelta neuroni decrescente</t>
+  </si>
+  <si>
+    <t>BAY AREA on SBSAM con scelta neuroni decrescente e layer aggiuntivo</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA on BASAM con scelta neuroni decrescente</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA on BASAM con scelta neuroni decrescente e layer aggiuntivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7821749840094718</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8154137</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8191505287081015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8829893173999638</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.54728806</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9037660691653087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8607395108939726</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.63115925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.898164151277201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8494553081054982</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4788843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8732271108696964</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.93020852193856</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.37647483</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9422868006518197</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.649746192893401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8455187</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6424926171391244</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8880254759733809</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.50371534</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9066153155237409</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.858063250648802</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.38955513</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8801677832096083</t>
   </si>
 </sst>
 </file>
@@ -226,13 +322,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,8 +356,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,11 +375,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -324,8 +416,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -434,95 +538,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="20% - Colore 1" xfId="6" builtinId="30"/>
-    <cellStyle name="20% - Colore 2" xfId="7" builtinId="34"/>
-    <cellStyle name="20% - Colore 6" xfId="8" builtinId="50"/>
-    <cellStyle name="Cella da controllare" xfId="5" builtinId="23"/>
-    <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
+  <cellStyles count="11">
+    <cellStyle name="20% - Colore 1" xfId="5" builtinId="30"/>
+    <cellStyle name="20% - Colore 2" xfId="6" builtinId="34"/>
+    <cellStyle name="20% - Colore 6" xfId="7" builtinId="50"/>
+    <cellStyle name="40% - Colore 2" xfId="9" builtinId="35"/>
+    <cellStyle name="40% - Colore 6" xfId="10" builtinId="51"/>
+    <cellStyle name="Calcolo" xfId="8" builtinId="22"/>
+    <cellStyle name="Cella da controllare" xfId="4" builtinId="23"/>
+    <cellStyle name="Neutrale" xfId="2" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="4" builtinId="21"/>
-    <cellStyle name="Valore non valido" xfId="2" builtinId="27"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -840,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291669DC-182D-4350-A2F9-8B3C2991A403}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,9 +1007,9 @@
     <col min="9" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -895,51 +1043,51 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>300000</v>
+        <v>728160</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>5377</v>
+        <v>9831</v>
       </c>
       <c r="D3">
-        <v>5233</v>
+        <v>18508</v>
       </c>
       <c r="E3">
-        <v>28834</v>
+        <v>70587</v>
       </c>
       <c r="F3">
-        <v>34037</v>
+        <v>33626</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="23"/>
       <c r="C4">
-        <v>4298</v>
+        <v>6723</v>
       </c>
       <c r="D4">
-        <v>4507</v>
+        <v>18027</v>
       </c>
       <c r="E4">
-        <v>29913</v>
+        <v>73695</v>
       </c>
       <c r="F4">
-        <v>34763</v>
+        <v>34107</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -949,75 +1097,75 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>300000</v>
+        <v>728160</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>11335</v>
-      </c>
-      <c r="D7">
-        <v>10371</v>
-      </c>
-      <c r="E7">
-        <v>22876</v>
-      </c>
-      <c r="F7">
-        <v>28899</v>
+        <v>86</v>
+      </c>
+      <c r="C7" s="14">
+        <v>13675</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5139</v>
+      </c>
+      <c r="E7" s="14">
+        <v>66743</v>
+      </c>
+      <c r="F7" s="14">
+        <v>46995</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8">
-        <v>9323</v>
-      </c>
-      <c r="D8">
-        <v>9451</v>
-      </c>
-      <c r="E8">
-        <v>24888</v>
-      </c>
-      <c r="F8">
-        <v>29819</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="14">
+        <v>11634</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4250</v>
+      </c>
+      <c r="E8" s="14">
+        <v>68784</v>
+      </c>
+      <c r="F8" s="14">
+        <v>47884</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1027,277 +1175,277 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>300000</v>
+        <v>728160</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>5215</v>
+        <v>10317</v>
       </c>
       <c r="D11">
-        <v>3262</v>
+        <v>15726</v>
       </c>
       <c r="E11">
-        <v>28996</v>
+        <v>70101</v>
       </c>
       <c r="F11">
-        <v>36008</v>
+        <v>36408</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="23"/>
       <c r="C12">
-        <v>3488</v>
+        <v>8287</v>
       </c>
       <c r="D12">
-        <v>2535</v>
+        <v>14922</v>
       </c>
       <c r="E12">
-        <v>30723</v>
+        <v>72131</v>
       </c>
       <c r="F12">
-        <v>36735</v>
+        <v>37212</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G14" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>728160</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>9831</v>
-      </c>
-      <c r="D17">
-        <v>18508</v>
-      </c>
-      <c r="E17">
-        <v>70587</v>
-      </c>
-      <c r="F17">
-        <v>33626</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>5618</v>
+      </c>
+      <c r="D15">
+        <v>9892</v>
+      </c>
+      <c r="E15">
+        <v>74800</v>
+      </c>
+      <c r="F15">
+        <v>42242</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16">
+        <v>3728</v>
+      </c>
+      <c r="D16">
+        <v>9028</v>
+      </c>
+      <c r="E16">
+        <v>76690</v>
+      </c>
+      <c r="F16">
+        <v>43106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>728160</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>6593</v>
+      </c>
+      <c r="D19">
+        <v>7636</v>
+      </c>
+      <c r="E19">
+        <v>73825</v>
+      </c>
+      <c r="F19">
+        <v>44498</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18">
-        <v>6723</v>
-      </c>
-      <c r="D18">
-        <v>18027</v>
-      </c>
-      <c r="E18">
-        <v>73695</v>
-      </c>
-      <c r="F18">
-        <v>34107</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20">
+        <v>5377</v>
+      </c>
+      <c r="D20">
+        <v>6911</v>
+      </c>
+      <c r="E20">
+        <v>75041</v>
+      </c>
+      <c r="F20">
+        <v>45223</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>728160</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21">
-        <v>10317</v>
-      </c>
-      <c r="D21">
-        <v>15726</v>
-      </c>
-      <c r="E21">
-        <v>70101</v>
-      </c>
-      <c r="F21">
-        <v>36408</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22">
-        <v>8287</v>
-      </c>
-      <c r="D22">
-        <v>14922</v>
-      </c>
-      <c r="E22">
-        <v>72131</v>
-      </c>
-      <c r="F22">
-        <v>37212</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1306,578 +1454,1216 @@
         <v>728160</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C25">
-        <v>6593</v>
+        <v>4404</v>
       </c>
       <c r="D25">
-        <v>7636</v>
+        <v>36791</v>
       </c>
       <c r="E25">
-        <v>73825</v>
+        <v>76014</v>
       </c>
       <c r="F25">
-        <v>44498</v>
+        <v>15343</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="16"/>
       <c r="C26">
+        <v>2832</v>
+      </c>
+      <c r="D26">
+        <v>38315</v>
+      </c>
+      <c r="E26">
+        <v>77586</v>
+      </c>
+      <c r="F26">
+        <v>13819</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>728160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29">
+        <v>2604</v>
+      </c>
+      <c r="D29">
+        <v>6647</v>
+      </c>
+      <c r="E29">
+        <v>77814</v>
+      </c>
+      <c r="F29">
+        <v>45487</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30">
+        <v>1750</v>
+      </c>
+      <c r="D30">
+        <v>5900</v>
+      </c>
+      <c r="E30">
+        <v>78668</v>
+      </c>
+      <c r="F30">
+        <v>46234</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>728160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>3347</v>
+      </c>
+      <c r="D33">
+        <v>8185</v>
+      </c>
+      <c r="E33">
+        <v>77071</v>
+      </c>
+      <c r="F33">
+        <v>43949</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34">
+        <v>1823</v>
+      </c>
+      <c r="D34">
+        <v>7600</v>
+      </c>
+      <c r="E34">
+        <v>78595</v>
+      </c>
+      <c r="F34">
+        <v>44534</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>728160</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37">
+        <v>10053</v>
+      </c>
+      <c r="D37">
+        <v>9902</v>
+      </c>
+      <c r="E37">
+        <v>70365</v>
+      </c>
+      <c r="F37">
+        <v>42232</v>
+      </c>
+      <c r="G37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38">
+        <v>7747</v>
+      </c>
+      <c r="D38">
+        <v>9057</v>
+      </c>
+      <c r="E38">
+        <v>72671</v>
+      </c>
+      <c r="F38">
+        <v>43077</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>728160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>3223</v>
+      </c>
+      <c r="D41">
+        <v>8093</v>
+      </c>
+      <c r="E41">
+        <v>77195</v>
+      </c>
+      <c r="F41">
+        <v>44041</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42">
+        <v>2279</v>
+      </c>
+      <c r="D42">
+        <v>7695</v>
+      </c>
+      <c r="E42">
+        <v>78139</v>
+      </c>
+      <c r="F42">
+        <v>44439</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>300000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
         <v>5377</v>
       </c>
-      <c r="D26">
-        <v>6911</v>
-      </c>
-      <c r="E26">
-        <v>75041</v>
-      </c>
-      <c r="F26">
-        <v>45223</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="D47">
+        <v>5233</v>
+      </c>
+      <c r="E47">
+        <v>28834</v>
+      </c>
+      <c r="F47">
+        <v>34037</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48">
+        <v>4298</v>
+      </c>
+      <c r="D48">
+        <v>4507</v>
+      </c>
+      <c r="E48">
+        <v>29913</v>
+      </c>
+      <c r="F48">
+        <v>34763</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>300000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51">
+        <v>3464</v>
+      </c>
+      <c r="D51">
+        <v>4764</v>
+      </c>
+      <c r="E51">
+        <v>30747</v>
+      </c>
+      <c r="F51">
+        <v>34506</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52">
+        <v>2630</v>
+      </c>
+      <c r="D52">
+        <v>4232</v>
+      </c>
+      <c r="E52">
+        <v>31581</v>
+      </c>
+      <c r="F52">
+        <v>35038</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>300000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>11335</v>
+      </c>
+      <c r="D55">
+        <v>10371</v>
+      </c>
+      <c r="E55">
+        <v>22876</v>
+      </c>
+      <c r="F55">
+        <v>28899</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56">
+        <v>9323</v>
+      </c>
+      <c r="D56">
+        <v>9451</v>
+      </c>
+      <c r="E56">
+        <v>24888</v>
+      </c>
+      <c r="F56">
+        <v>29819</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>300000</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="14">
+        <v>10352</v>
+      </c>
+      <c r="D59" s="14">
+        <v>5654</v>
+      </c>
+      <c r="E59" s="14">
+        <v>23859</v>
+      </c>
+      <c r="F59" s="14">
+        <v>33616</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="14">
+        <v>9084</v>
+      </c>
+      <c r="D60" s="14">
+        <v>4205</v>
+      </c>
+      <c r="E60" s="14">
+        <v>25127</v>
+      </c>
+      <c r="F60" s="14">
+        <v>35065</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>300000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>5215</v>
+      </c>
+      <c r="D63">
+        <v>3262</v>
+      </c>
+      <c r="E63">
+        <v>28996</v>
+      </c>
+      <c r="F63">
+        <v>36008</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64">
+        <v>3488</v>
+      </c>
+      <c r="D64">
+        <v>2535</v>
+      </c>
+      <c r="E64">
+        <v>30723</v>
+      </c>
+      <c r="F64">
+        <v>36735</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G68" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>300000</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B69" t="s">
         <v>35</v>
       </c>
-      <c r="C31">
+      <c r="C69">
         <v>17159</v>
       </c>
-      <c r="D31">
+      <c r="D69">
         <v>8007</v>
       </c>
-      <c r="E31">
+      <c r="E69">
         <v>17052</v>
       </c>
-      <c r="F31">
+      <c r="F69">
         <v>31263</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32">
+      <c r="B70" s="23"/>
+      <c r="C70">
         <v>16725</v>
       </c>
-      <c r="D32">
+      <c r="D70">
         <v>8353</v>
       </c>
-      <c r="E32">
+      <c r="E70">
         <v>17486</v>
       </c>
-      <c r="F32">
+      <c r="F70">
         <v>30917</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="71" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>300000</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>20309</v>
+      </c>
+      <c r="D73">
+        <v>5428</v>
+      </c>
+      <c r="E73">
+        <v>13902</v>
+      </c>
+      <c r="F73">
+        <v>33842</v>
+      </c>
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74">
+        <v>21275</v>
+      </c>
+      <c r="D74">
+        <v>4995</v>
+      </c>
+      <c r="E74">
+        <v>12936</v>
+      </c>
+      <c r="F74">
+        <v>34275</v>
+      </c>
+      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B76" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C76" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D76" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F76" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G76" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>300000</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B77" t="s">
         <v>39</v>
       </c>
-      <c r="C35">
+      <c r="C77">
         <v>2932</v>
       </c>
-      <c r="D35">
+      <c r="D77">
         <v>5513</v>
       </c>
-      <c r="E35">
+      <c r="E77">
         <v>31279</v>
       </c>
-      <c r="F35">
+      <c r="F77">
         <v>33757</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36">
+      <c r="B78" s="23"/>
+      <c r="C78">
         <v>1089</v>
       </c>
-      <c r="D36">
+      <c r="D78">
         <v>4709</v>
       </c>
-      <c r="E36">
+      <c r="E78">
         <v>33122</v>
       </c>
-      <c r="F36">
+      <c r="F78">
         <v>34561</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G78" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+    <row r="79" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>300000</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81">
+        <v>3551</v>
+      </c>
+      <c r="D81">
+        <v>6682</v>
+      </c>
+      <c r="E81">
+        <v>30660</v>
+      </c>
+      <c r="F81">
+        <v>32588</v>
+      </c>
+      <c r="G81" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82">
+        <v>1349</v>
+      </c>
+      <c r="D82">
+        <v>6134</v>
+      </c>
+      <c r="E82">
+        <v>32862</v>
+      </c>
+      <c r="F82">
+        <v>33136</v>
+      </c>
+      <c r="G82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F84" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G84" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>300000</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B85" t="s">
         <v>51</v>
       </c>
-      <c r="C39">
+      <c r="C85">
         <v>17911</v>
       </c>
-      <c r="D39">
+      <c r="D85">
         <v>3057</v>
       </c>
-      <c r="E39">
+      <c r="E85">
         <v>16300</v>
       </c>
-      <c r="F39">
+      <c r="F85">
         <v>36213</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G85" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40">
+      <c r="B86" s="23"/>
+      <c r="C86">
         <v>18306</v>
       </c>
-      <c r="D40">
+      <c r="D86">
         <v>2323</v>
       </c>
-      <c r="E40">
+      <c r="E86">
         <v>15905</v>
       </c>
-      <c r="F40">
+      <c r="F86">
         <v>36947</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G86" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>728160</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45">
-        <v>4404</v>
-      </c>
-      <c r="D45">
-        <v>36791</v>
-      </c>
-      <c r="E45">
-        <v>76014</v>
-      </c>
-      <c r="F45">
-        <v>15343</v>
-      </c>
-      <c r="G45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46">
-        <v>2832</v>
-      </c>
-      <c r="D46">
-        <v>38315</v>
-      </c>
-      <c r="E46">
-        <v>77586</v>
-      </c>
-      <c r="F46">
-        <v>13819</v>
-      </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>728160</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>3347</v>
-      </c>
-      <c r="D49">
-        <v>8185</v>
-      </c>
-      <c r="E49">
-        <v>77071</v>
-      </c>
-      <c r="F49">
-        <v>43949</v>
-      </c>
-      <c r="G49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50">
-        <v>1823</v>
-      </c>
-      <c r="D50">
-        <v>7600</v>
-      </c>
-      <c r="E50">
-        <v>78595</v>
-      </c>
-      <c r="F50">
-        <v>44534</v>
-      </c>
-      <c r="G50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>728160</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53">
-        <v>3223</v>
-      </c>
-      <c r="D53">
-        <v>8093</v>
-      </c>
-      <c r="E53">
-        <v>77195</v>
-      </c>
-      <c r="F53">
-        <v>44041</v>
-      </c>
-      <c r="G53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54">
-        <v>2279</v>
-      </c>
-      <c r="D54">
-        <v>7695</v>
-      </c>
-      <c r="E54">
-        <v>78139</v>
-      </c>
-      <c r="F54">
-        <v>44439</v>
-      </c>
-      <c r="G54" t="s">
-        <v>55</v>
-      </c>
-    </row>
+    <row r="87" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="40">
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A13:G14"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A27:G28"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A41:G42"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A61:G61"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A83:G83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/res/test confronto scelta neuroni/Riassunto test con correzione spaziale.xlsx
+++ b/res/test confronto scelta neuroni/Riassunto test con correzione spaziale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo Dom-Z Mk. II\Desktop\repo tesi\SiameseChangeDetection\res\test confronto scelta neuroni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF83A033-A276-4224-92B7-24D2713C04C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CDFC8-3FAC-412D-BC47-CB4AE18A8A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="6540" windowWidth="19440" windowHeight="15000" xr2:uid="{79E00BD3-0466-4E8D-B63B-9137F47501E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79E00BD3-0466-4E8D-B63B-9137F47501E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="104">
   <si>
     <t>total_examples</t>
   </si>
@@ -298,6 +298,54 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.8801677832096083</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA on BAED con struttura fissa last best e layer aggiuntivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6324310459291448</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18584383</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6386022089444142</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA on BASAM con struttura fissa last best e layer aggiuntivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8173320659062104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.52267575</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8251629549158066</t>
+  </si>
+  <si>
+    <t>BAY AREA on SBED con struttura fissa last best e layer aggiuntivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7696003048407071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.56972253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7898776554483472</t>
+  </si>
+  <si>
+    <t>BAY AREA on SBSAM con struttura fissa last best e layer aggiuntivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8590383908765531</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6517351</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8902165185558172</t>
   </si>
 </sst>
 </file>
@@ -365,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +476,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -579,8 +633,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -592,8 +657,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -632,7 +698,19 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,27 +722,20 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="20% - Colore 1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Colore 2" xfId="6" builtinId="34"/>
     <cellStyle name="20% - Colore 6" xfId="7" builtinId="50"/>
     <cellStyle name="40% - Colore 2" xfId="9" builtinId="35"/>
+    <cellStyle name="40% - Colore 5" xfId="11" builtinId="47"/>
     <cellStyle name="40% - Colore 6" xfId="10" builtinId="51"/>
     <cellStyle name="Calcolo" xfId="8" builtinId="22"/>
     <cellStyle name="Cella da controllare" xfId="4" builtinId="23"/>
@@ -988,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291669DC-182D-4350-A2F9-8B3C2991A403}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:G83"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,15 +1079,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1065,10 +1136,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="19"/>
       <c r="C4">
         <v>6723</v>
       </c>
@@ -1086,15 +1157,15 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1143,10 +1214,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="14">
         <v>11634</v>
       </c>
@@ -1164,15 +1235,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -1221,10 +1292,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="19"/>
       <c r="C12">
         <v>8287</v>
       </c>
@@ -1242,15 +1313,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -1299,10 +1370,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="19"/>
       <c r="C16">
         <v>3728</v>
       </c>
@@ -1320,36 +1391,36 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="A17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="24" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1358,172 +1429,172 @@
         <v>728160</v>
       </c>
       <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>35299</v>
+      </c>
+      <c r="D19">
+        <v>13423</v>
+      </c>
+      <c r="E19">
+        <v>45119</v>
+      </c>
+      <c r="F19">
+        <v>38711</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20">
+        <v>34789</v>
+      </c>
+      <c r="D20">
+        <v>13115</v>
+      </c>
+      <c r="E20">
+        <v>45629</v>
+      </c>
+      <c r="F20">
+        <v>39019</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>728160</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C19">
+      <c r="C23">
         <v>6593</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>7636</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>73825</v>
       </c>
-      <c r="F19">
+      <c r="F23">
         <v>44498</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20">
+      <c r="B24" s="19"/>
+      <c r="C24">
         <v>5377</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>6911</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>75041</v>
       </c>
-      <c r="F20">
+      <c r="F24">
         <v>45223</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="25" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>728160</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25">
-        <v>4404</v>
-      </c>
-      <c r="D25">
-        <v>36791</v>
-      </c>
-      <c r="E25">
-        <v>76014</v>
-      </c>
-      <c r="F25">
-        <v>15343</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26">
-        <v>2832</v>
-      </c>
-      <c r="D26">
-        <v>38315</v>
-      </c>
-      <c r="E26">
-        <v>77586</v>
-      </c>
-      <c r="F26">
-        <v>13819</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1532,76 +1603,76 @@
         <v>728160</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C29">
-        <v>2604</v>
+        <v>4404</v>
       </c>
       <c r="D29">
-        <v>6647</v>
+        <v>36791</v>
       </c>
       <c r="E29">
-        <v>77814</v>
+        <v>76014</v>
       </c>
       <c r="F29">
-        <v>45487</v>
+        <v>15343</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="19"/>
       <c r="C30">
-        <v>1750</v>
+        <v>2832</v>
       </c>
       <c r="D30">
-        <v>5900</v>
+        <v>38315</v>
       </c>
       <c r="E30">
-        <v>78668</v>
+        <v>77586</v>
       </c>
       <c r="F30">
-        <v>46234</v>
+        <v>13819</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1610,76 +1681,76 @@
         <v>728160</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C33">
-        <v>3347</v>
+        <v>2604</v>
       </c>
       <c r="D33">
-        <v>8185</v>
+        <v>6647</v>
       </c>
       <c r="E33">
-        <v>77071</v>
+        <v>77814</v>
       </c>
       <c r="F33">
-        <v>43949</v>
+        <v>45487</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="19"/>
       <c r="C34">
-        <v>1823</v>
+        <v>1750</v>
       </c>
       <c r="D34">
-        <v>7600</v>
+        <v>5900</v>
       </c>
       <c r="E34">
-        <v>78595</v>
+        <v>78668</v>
       </c>
       <c r="F34">
-        <v>44534</v>
+        <v>46234</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1688,76 +1759,76 @@
         <v>728160</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C37">
-        <v>10053</v>
+        <v>3347</v>
       </c>
       <c r="D37">
-        <v>9902</v>
+        <v>8185</v>
       </c>
       <c r="E37">
-        <v>70365</v>
+        <v>77071</v>
       </c>
       <c r="F37">
-        <v>42232</v>
+        <v>43949</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="19"/>
       <c r="C38">
-        <v>7747</v>
+        <v>1823</v>
       </c>
       <c r="D38">
-        <v>9057</v>
+        <v>7600</v>
       </c>
       <c r="E38">
-        <v>72671</v>
+        <v>78595</v>
       </c>
       <c r="F38">
-        <v>43077</v>
+        <v>44534</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1766,250 +1837,250 @@
         <v>728160</v>
       </c>
       <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>10053</v>
+      </c>
+      <c r="D41">
+        <v>9902</v>
+      </c>
+      <c r="E41">
+        <v>70365</v>
+      </c>
+      <c r="F41">
+        <v>42232</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42">
+        <v>7747</v>
+      </c>
+      <c r="D42">
+        <v>9057</v>
+      </c>
+      <c r="E42">
+        <v>72671</v>
+      </c>
+      <c r="F42">
+        <v>43077</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>728160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45">
+        <v>4314</v>
+      </c>
+      <c r="D45">
+        <v>19899</v>
+      </c>
+      <c r="E45">
+        <v>76104</v>
+      </c>
+      <c r="F45">
+        <v>32235</v>
+      </c>
+      <c r="G45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46">
+        <v>2818</v>
+      </c>
+      <c r="D46">
+        <v>20357</v>
+      </c>
+      <c r="E46">
+        <v>77600</v>
+      </c>
+      <c r="F46">
+        <v>31777</v>
+      </c>
+      <c r="G46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>728160</v>
+      </c>
+      <c r="B49" t="s">
         <v>54</v>
       </c>
-      <c r="C41">
+      <c r="C49">
         <v>3223</v>
       </c>
-      <c r="D41">
+      <c r="D49">
         <v>8093</v>
       </c>
-      <c r="E41">
+      <c r="E49">
         <v>77195</v>
       </c>
-      <c r="F41">
+      <c r="F49">
         <v>44041</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42">
+      <c r="B50" s="19"/>
+      <c r="C50">
         <v>2279</v>
       </c>
-      <c r="D42">
+      <c r="D50">
         <v>7695</v>
       </c>
-      <c r="E42">
+      <c r="E50">
         <v>78139</v>
       </c>
-      <c r="F42">
+      <c r="F50">
         <v>44439</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+    <row r="51" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>300000</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47">
-        <v>5377</v>
-      </c>
-      <c r="D47">
-        <v>5233</v>
-      </c>
-      <c r="E47">
-        <v>28834</v>
-      </c>
-      <c r="F47">
-        <v>34037</v>
-      </c>
-      <c r="G47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48">
-        <v>4298</v>
-      </c>
-      <c r="D48">
-        <v>4507</v>
-      </c>
-      <c r="E48">
-        <v>29913</v>
-      </c>
-      <c r="F48">
-        <v>34763</v>
-      </c>
-      <c r="G48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>300000</v>
-      </c>
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51">
-        <v>3464</v>
-      </c>
-      <c r="D51">
-        <v>4764</v>
-      </c>
-      <c r="E51">
-        <v>30747</v>
-      </c>
-      <c r="F51">
-        <v>34506</v>
-      </c>
-      <c r="G51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52">
-        <v>2630</v>
-      </c>
-      <c r="D52">
-        <v>4232</v>
-      </c>
-      <c r="E52">
-        <v>31581</v>
-      </c>
-      <c r="F52">
-        <v>35038</v>
-      </c>
-      <c r="G52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2018,154 +2089,154 @@
         <v>300000</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <v>11335</v>
+        <v>5377</v>
       </c>
       <c r="D55">
-        <v>10371</v>
+        <v>5233</v>
       </c>
       <c r="E55">
-        <v>22876</v>
+        <v>28834</v>
       </c>
       <c r="F55">
-        <v>28899</v>
+        <v>34037</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="19"/>
       <c r="C56">
-        <v>9323</v>
+        <v>4298</v>
       </c>
       <c r="D56">
-        <v>9451</v>
+        <v>4507</v>
       </c>
       <c r="E56">
-        <v>24888</v>
+        <v>29913</v>
       </c>
       <c r="F56">
-        <v>29819</v>
+        <v>34763</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
+      <c r="A57" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59">
         <v>300000</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="14">
-        <v>10352</v>
-      </c>
-      <c r="D59" s="14">
-        <v>5654</v>
-      </c>
-      <c r="E59" s="14">
-        <v>23859</v>
-      </c>
-      <c r="F59" s="14">
-        <v>33616</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>64</v>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59">
+        <v>3464</v>
+      </c>
+      <c r="D59">
+        <v>4764</v>
+      </c>
+      <c r="E59">
+        <v>30747</v>
+      </c>
+      <c r="F59">
+        <v>34506</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="14">
-        <v>9084</v>
-      </c>
-      <c r="D60" s="14">
-        <v>4205</v>
-      </c>
-      <c r="E60" s="14">
-        <v>25127</v>
-      </c>
-      <c r="F60" s="14">
-        <v>35065</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>66</v>
+      <c r="B60" s="19"/>
+      <c r="C60">
+        <v>2630</v>
+      </c>
+      <c r="D60">
+        <v>4232</v>
+      </c>
+      <c r="E60">
+        <v>31581</v>
+      </c>
+      <c r="F60">
+        <v>35038</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+      <c r="A61" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2174,328 +2245,328 @@
         <v>300000</v>
       </c>
       <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>11335</v>
+      </c>
+      <c r="D63">
+        <v>10371</v>
+      </c>
+      <c r="E63">
+        <v>22876</v>
+      </c>
+      <c r="F63">
+        <v>28899</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64">
+        <v>9323</v>
+      </c>
+      <c r="D64">
+        <v>9451</v>
+      </c>
+      <c r="E64">
+        <v>24888</v>
+      </c>
+      <c r="F64">
+        <v>29819</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>300000</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="14">
+        <v>10352</v>
+      </c>
+      <c r="D67" s="14">
+        <v>5654</v>
+      </c>
+      <c r="E67" s="14">
+        <v>23859</v>
+      </c>
+      <c r="F67" s="14">
+        <v>33616</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="14">
+        <v>9084</v>
+      </c>
+      <c r="D68" s="14">
+        <v>4205</v>
+      </c>
+      <c r="E68" s="14">
+        <v>25127</v>
+      </c>
+      <c r="F68" s="14">
+        <v>35065</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>300000</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71">
+        <v>5207</v>
+      </c>
+      <c r="D71">
+        <v>11723</v>
+      </c>
+      <c r="E71">
+        <v>29004</v>
+      </c>
+      <c r="F71">
+        <v>27547</v>
+      </c>
+      <c r="G71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72">
+        <v>3718</v>
+      </c>
+      <c r="D72">
+        <v>11722</v>
+      </c>
+      <c r="E72">
+        <v>30493</v>
+      </c>
+      <c r="F72">
+        <v>27548</v>
+      </c>
+      <c r="G72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>300000</v>
+      </c>
+      <c r="B75" t="s">
         <v>18</v>
       </c>
-      <c r="C63">
+      <c r="C75">
         <v>5215</v>
       </c>
-      <c r="D63">
+      <c r="D75">
         <v>3262</v>
       </c>
-      <c r="E63">
+      <c r="E75">
         <v>28996</v>
       </c>
-      <c r="F63">
+      <c r="F75">
         <v>36008</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64">
+      <c r="B76" s="19"/>
+      <c r="C76">
         <v>3488</v>
       </c>
-      <c r="D64">
+      <c r="D76">
         <v>2535</v>
       </c>
-      <c r="E64">
+      <c r="E76">
         <v>30723</v>
       </c>
-      <c r="F64">
+      <c r="F76">
         <v>36735</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
+    <row r="77" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>300000</v>
-      </c>
-      <c r="B69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69">
-        <v>17159</v>
-      </c>
-      <c r="D69">
-        <v>8007</v>
-      </c>
-      <c r="E69">
-        <v>17052</v>
-      </c>
-      <c r="F69">
-        <v>31263</v>
-      </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="23"/>
-      <c r="C70">
-        <v>16725</v>
-      </c>
-      <c r="D70">
-        <v>8353</v>
-      </c>
-      <c r="E70">
-        <v>17486</v>
-      </c>
-      <c r="F70">
-        <v>30917</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>300000</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73">
-        <v>20309</v>
-      </c>
-      <c r="D73">
-        <v>5428</v>
-      </c>
-      <c r="E73">
-        <v>13902</v>
-      </c>
-      <c r="F73">
-        <v>33842</v>
-      </c>
-      <c r="G73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="23"/>
-      <c r="C74">
-        <v>21275</v>
-      </c>
-      <c r="D74">
-        <v>4995</v>
-      </c>
-      <c r="E74">
-        <v>12936</v>
-      </c>
-      <c r="F74">
-        <v>34275</v>
-      </c>
-      <c r="G74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>300000</v>
-      </c>
-      <c r="B77" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77">
-        <v>2932</v>
-      </c>
-      <c r="D77">
-        <v>5513</v>
-      </c>
-      <c r="E77">
-        <v>31279</v>
-      </c>
-      <c r="F77">
-        <v>33757</v>
-      </c>
-      <c r="G77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="23"/>
-      <c r="C78">
-        <v>1089</v>
-      </c>
-      <c r="D78">
-        <v>4709</v>
-      </c>
-      <c r="E78">
-        <v>33122</v>
-      </c>
-      <c r="F78">
-        <v>34561</v>
-      </c>
-      <c r="G78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2504,76 +2575,76 @@
         <v>300000</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C81">
-        <v>3551</v>
+        <v>17159</v>
       </c>
       <c r="D81">
-        <v>6682</v>
+        <v>8007</v>
       </c>
       <c r="E81">
-        <v>30660</v>
+        <v>17052</v>
       </c>
       <c r="F81">
-        <v>32588</v>
+        <v>31263</v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="23"/>
+      <c r="B82" s="19"/>
       <c r="C82">
-        <v>1349</v>
+        <v>16725</v>
       </c>
       <c r="D82">
-        <v>6134</v>
+        <v>8353</v>
       </c>
       <c r="E82">
-        <v>32862</v>
+        <v>17486</v>
       </c>
       <c r="F82">
-        <v>33136</v>
+        <v>30917</v>
       </c>
       <c r="G82" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
+      <c r="A83" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2582,78 +2653,375 @@
         <v>300000</v>
       </c>
       <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85">
+        <v>20309</v>
+      </c>
+      <c r="D85">
+        <v>5428</v>
+      </c>
+      <c r="E85">
+        <v>13902</v>
+      </c>
+      <c r="F85">
+        <v>33842</v>
+      </c>
+      <c r="G85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86">
+        <v>21275</v>
+      </c>
+      <c r="D86">
+        <v>4995</v>
+      </c>
+      <c r="E86">
+        <v>12936</v>
+      </c>
+      <c r="F86">
+        <v>34275</v>
+      </c>
+      <c r="G86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>300000</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89">
+        <v>2932</v>
+      </c>
+      <c r="D89">
+        <v>5513</v>
+      </c>
+      <c r="E89">
+        <v>31279</v>
+      </c>
+      <c r="F89">
+        <v>33757</v>
+      </c>
+      <c r="G89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90">
+        <v>1089</v>
+      </c>
+      <c r="D90">
+        <v>4709</v>
+      </c>
+      <c r="E90">
+        <v>33122</v>
+      </c>
+      <c r="F90">
+        <v>34561</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>300000</v>
+      </c>
+      <c r="B93" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93">
+        <v>3551</v>
+      </c>
+      <c r="D93">
+        <v>6682</v>
+      </c>
+      <c r="E93">
+        <v>30660</v>
+      </c>
+      <c r="F93">
+        <v>32588</v>
+      </c>
+      <c r="G93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94">
+        <v>1349</v>
+      </c>
+      <c r="D94">
+        <v>6134</v>
+      </c>
+      <c r="E94">
+        <v>32862</v>
+      </c>
+      <c r="F94">
+        <v>33136</v>
+      </c>
+      <c r="G94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>300000</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97">
+        <v>3229</v>
+      </c>
+      <c r="D97">
+        <v>7129</v>
+      </c>
+      <c r="E97">
+        <v>30982</v>
+      </c>
+      <c r="F97">
+        <v>32141</v>
+      </c>
+      <c r="G97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="19"/>
+      <c r="C98">
+        <v>1319</v>
+      </c>
+      <c r="D98">
+        <v>6748</v>
+      </c>
+      <c r="E98">
+        <v>32892</v>
+      </c>
+      <c r="F98">
+        <v>32522</v>
+      </c>
+      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>300000</v>
+      </c>
+      <c r="B101" t="s">
         <v>51</v>
       </c>
-      <c r="C85">
+      <c r="C101">
         <v>17911</v>
       </c>
-      <c r="D85">
+      <c r="D101">
         <v>3057</v>
       </c>
-      <c r="E85">
+      <c r="E101">
         <v>16300</v>
       </c>
-      <c r="F85">
+      <c r="F101">
         <v>36213</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G101" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="22" t="s">
+    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86">
+      <c r="B102" s="19"/>
+      <c r="C102">
         <v>18306</v>
       </c>
-      <c r="D86">
+      <c r="D102">
         <v>2323</v>
       </c>
-      <c r="E86">
+      <c r="E102">
         <v>15905</v>
       </c>
-      <c r="F86">
+      <c r="F102">
         <v>36947</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G102" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A13:G13"/>
+  <mergeCells count="48">
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A99:G99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:G47"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A35:G35"/>
@@ -2661,9 +3029,32 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A61:G61"/>
     <mergeCell ref="A79:G79"/>
     <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
